--- a/ozone/multistate/ANO-RCC-VTZP/ozone_111.00/ozone_111.00_energies.xlsx
+++ b/ozone/multistate/ANO-RCC-VTZP/ozone_111.00/ozone_111.00_energies.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7688143716</v>
+        <v>-0.5605578392</v>
       </c>
       <c r="C2" t="n">
-        <v>-224.50966884</v>
+        <v>-224.73525834</v>
       </c>
       <c r="D2" t="n">
-        <v>-225.27848321</v>
+        <v>-225.29581618</v>
       </c>
       <c r="E2" t="n">
-        <v>-224.5104056356</v>
+        <v>-224.5104056355</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7569009222</v>
+        <v>-0.5691767054</v>
       </c>
       <c r="C3" t="n">
-        <v>-224.49915687</v>
+        <v>-224.66538499</v>
       </c>
       <c r="D3" t="n">
-        <v>-225.25605779</v>
+        <v>-225.2345617</v>
       </c>
       <c r="E3" t="n">
-        <v>-224.5104056356</v>
+        <v>-224.5104056355</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.83895447</v>
+        <v>-0.571565164</v>
       </c>
       <c r="C4" t="n">
-        <v>-224.42641661</v>
+        <v>-224.64379284</v>
       </c>
       <c r="D4" t="n">
-        <v>-225.26537108</v>
+        <v>-225.215358</v>
       </c>
       <c r="E4" t="n">
-        <v>-224.5104056356</v>
+        <v>-224.5104056355</v>
       </c>
     </row>
   </sheetData>
